--- a/M1_BOM.xlsx
+++ b/M1_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\OneDrive\Documents\ECE 2021-2022\Winter Semester\ECE295\M1\Milestone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71AD165A-79B5-4745-8724-A33C73613A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7011BB-9DC4-4311-AAFD-DBE96A8E30FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="400" windowWidth="18120" windowHeight="9680" xr2:uid="{EAB22130-2FCE-4A9D-8178-7D3B182082A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{070D2224-CB09-4C0E-BF61-26CD6E3CC32C}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>Comment</t>
   </si>
@@ -61,6 +61,69 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
+    <t>1N4001-TP</t>
+  </si>
+  <si>
+    <t>DIODE GEN PURP 50V 1A DO41</t>
+  </si>
+  <si>
+    <t>Flywheel</t>
+  </si>
+  <si>
+    <t>FP-DO-41-MFG</t>
+  </si>
+  <si>
+    <t>CMP-56207-000001-1</t>
+  </si>
+  <si>
+    <t>1N4001-TPMSTR-ND</t>
+  </si>
+  <si>
+    <t>7-1393779-2</t>
+  </si>
+  <si>
+    <t>Relay General Purpose; 1A; SPDT; 24V DC Coil</t>
+  </si>
+  <si>
+    <t>SPDT Relay</t>
+  </si>
+  <si>
+    <t>RELAY_7-1393779-2</t>
+  </si>
+  <si>
+    <t>36K2076</t>
+  </si>
+  <si>
+    <t>ATmega32A-PU</t>
+  </si>
+  <si>
+    <t>8-bit AVR Microcontroller, 2.7-5.5V, 16MHz, 32KB Flash, 1KB EEPROM, 2KB SRAM, 40-pin PDIP, Industrial Grade (-40°C to 85°C)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>40P6</t>
+  </si>
+  <si>
+    <t>CMP-0095-00028-2</t>
+  </si>
+  <si>
+    <t>ATMEGA324A-PU-ND</t>
+  </si>
+  <si>
+    <t>BC109</t>
+  </si>
+  <si>
+    <t>Transistor GP BJT NPN 25V 200mA 3-Pin TO-18</t>
+  </si>
+  <si>
+    <t>BJT</t>
+  </si>
+  <si>
+    <t>80K0906</t>
+  </si>
+  <si>
     <t>Cap</t>
   </si>
   <si>
@@ -91,24 +154,6 @@
     <t>1481-1233-ND</t>
   </si>
   <si>
-    <t>ATmega32A-PU</t>
-  </si>
-  <si>
-    <t>8-bit AVR Microcontroller, 2.7-5.5V, 16MHz, 32KB Flash, 1KB EEPROM, 2KB SRAM, 40-pin PDIP, Industrial Grade (-40°C to 85°C)</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>40P6</t>
-  </si>
-  <si>
-    <t>CMP-0095-00028-2</t>
-  </si>
-  <si>
-    <t>ATMEGA324A-PU-ND</t>
-  </si>
-  <si>
     <t>Header 4</t>
   </si>
   <si>
@@ -124,61 +169,76 @@
     <t>S1011EC-04-ND</t>
   </si>
   <si>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>Conn Header .100" Sngl Str 6POS</t>
+  </si>
+  <si>
+    <t>J_USB</t>
+  </si>
+  <si>
+    <t>HDR1X6</t>
+  </si>
+  <si>
+    <t>S1011EC-06-ND</t>
+  </si>
+  <si>
+    <t>Header 7</t>
+  </si>
+  <si>
+    <t>Female, 7C, Straight, .100"CC; 3.20mm Tail, No Mt. 100u" Tin; PBT, Phos Bronze, 105 C</t>
+  </si>
+  <si>
+    <t>J_CLK</t>
+  </si>
+  <si>
+    <t>HDR1X7</t>
+  </si>
+  <si>
+    <t>S7005-ND</t>
+  </si>
+  <si>
+    <t>Header 8</t>
+  </si>
+  <si>
+    <t>Conn Header Vert 8POS 2.54MM</t>
+  </si>
+  <si>
+    <t>J_JTAG, J_KEY</t>
+  </si>
+  <si>
+    <t>HDR1X8</t>
+  </si>
+  <si>
+    <t>S1011EC-08-ND</t>
+  </si>
+  <si>
     <t>Power</t>
   </si>
   <si>
     <t>J10</t>
   </si>
   <si>
+    <t>Res1</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t>AXIAL-0.1-RES</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 5% 1/4W AXIAL, RES 10K OHM 5% 1/4W AXIAL</t>
+  </si>
+  <si>
     <t>Signals</t>
   </si>
   <si>
     <t>J9</t>
-  </si>
-  <si>
-    <t>Header 6</t>
-  </si>
-  <si>
-    <t>Conn Header .100" Sngl Str 6POS</t>
-  </si>
-  <si>
-    <t>J_USB</t>
-  </si>
-  <si>
-    <t>HDR1X6</t>
-  </si>
-  <si>
-    <t>S1011EC-06-ND</t>
-  </si>
-  <si>
-    <t>Header 8</t>
-  </si>
-  <si>
-    <t>Conn Header Vert 8POS 2.54MM</t>
-  </si>
-  <si>
-    <t>J_JTAG, J_KEY</t>
-  </si>
-  <si>
-    <t>HDR1X8</t>
-  </si>
-  <si>
-    <t>S1011EC-08-ND</t>
-  </si>
-  <si>
-    <t>Header 7</t>
-  </si>
-  <si>
-    <t>Female, 7C, Straight, .100"CC; 3.20mm Tail, No Mt. 100u" Tin; PBT, Phos Bronze, 105 C</t>
-  </si>
-  <si>
-    <t>J_CLK</t>
-  </si>
-  <si>
-    <t>HDR1X7</t>
-  </si>
-  <si>
-    <t>S7005-ND</t>
   </si>
 </sst>
 </file>
@@ -235,12 +295,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,22 +623,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CC354F-5042-4BF2-A9E9-0B8FF752AAAF}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED64C88B-18A9-4239-AFBD-4604F5F0A0DF}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="18.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -592,7 +667,7 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -605,74 +680,76 @@
         <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>27</v>
@@ -682,115 +759,203 @@
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/M1_BOM.xlsx
+++ b/M1_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathe\OneDrive\Documents\ECE 2021-2022\Winter Semester\ECE295\M1\Milestone1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7011BB-9DC4-4311-AAFD-DBE96A8E30FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351747D-B3C7-4A8B-A41D-138BEA48E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{070D2224-CB09-4C0E-BF61-26CD6E3CC32C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFC82FA4-634E-4EB5-9FF3-6C1AB8B8DCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="M1_BOM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Comment</t>
   </si>
@@ -112,16 +112,22 @@
     <t>ATMEGA324A-PU-ND</t>
   </si>
   <si>
-    <t>BC109</t>
-  </si>
-  <si>
-    <t>Transistor GP BJT NPN 25V 200mA 3-Pin TO-18</t>
+    <t>BC847C,235</t>
+  </si>
+  <si>
+    <t>TRANS NPN 45V 100MA TO236AB</t>
   </si>
   <si>
     <t>BJT</t>
   </si>
   <si>
-    <t>80K0906</t>
+    <t>FP-SOT23-MFG</t>
+  </si>
+  <si>
+    <t>CMP-14406-000033-1</t>
+  </si>
+  <si>
+    <t>1707952</t>
   </si>
   <si>
     <t>Cap</t>
@@ -214,12 +220,6 @@
     <t>S1011EC-08-ND</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
     <t>Res1</t>
   </si>
   <si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>RES 1K OHM 5% 1/4W AXIAL, RES 10K OHM 5% 1/4W AXIAL</t>
-  </si>
-  <si>
-    <t>Signals</t>
-  </si>
-  <si>
-    <t>J9</t>
   </si>
 </sst>
 </file>
@@ -254,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,15 +301,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,20 +617,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED64C88B-18A9-4239-AFBD-4604F5F0A0DF}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0352CFD-BE41-4121-B3D1-919398D1A133}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="6" width="18.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -644,7 +636,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -667,7 +659,7 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -690,7 +682,7 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -709,26 +701,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -736,227 +728,181 @@
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
